--- a/Article Category Data/Categories2023-04-11 220847.856943.xlsx
+++ b/Article Category Data/Categories2023-04-11 220847.856943.xlsx
@@ -1,18 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\Hadiya\fyp\khulasa\Article Category Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AB91FF-6A9B-4F9B-BEFB-2CA854DFF081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="468" count="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="348">
   <si>
     <t>title</t>
   </si>
@@ -212,7 +220,7 @@
     <t>https://jang.com.pk/news/1214482</t>
   </si>
   <si>
-    <t>پی ایس ایکس 100 انڈیکس میں 31 پوائنٹس کی کمی </t>
+    <t>پی ایس ایکس 100 انڈیکس میں 31 پوائنٹس کی کمی</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1214486</t>
@@ -248,7 +256,7 @@
     <t>https://jang.com.pk/news/1214498</t>
   </si>
   <si>
-    <t>بنوں میں سیکیورٹی فورسز کا آپریشن، 3 دہشتگرد ہلاک </t>
+    <t>بنوں میں سیکیورٹی فورسز کا آپریشن، 3 دہشتگرد ہلاک</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1214481</t>
@@ -293,7 +301,7 @@
     <t>https://jang.com.pk/news/1214464</t>
   </si>
   <si>
-    <t>نیتو کپور کی’شادی‘ سے متعلق انسٹا پوسٹ پر کترینہ کیف کی والدہ کا ردِعمل </t>
+    <t>نیتو کپور کی’شادی‘ سے متعلق انسٹا پوسٹ پر کترینہ کیف کی والدہ کا ردِعمل</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1214459</t>
@@ -317,7 +325,7 @@
     <t>https://jang.com.pk/news/1214457</t>
   </si>
   <si>
-    <t>کرن جوہر کی نئی انسٹاگرام پوسٹ پر کنگنا رناوت کی تنقید </t>
+    <t>کرن جوہر کی نئی انسٹاگرام پوسٹ پر کنگنا رناوت کی تنقید</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1214455</t>
@@ -353,7 +361,7 @@
     <t>https://jang.com.pk/news/1214409</t>
   </si>
   <si>
-    <t>اسٹیو اسمتھ کا PSL کھیلنے کی خواہش کا اظہار </t>
+    <t>اسٹیو اسمتھ کا PSL کھیلنے کی خواہش کا اظہار</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1214394</t>
@@ -443,7 +451,7 @@
     <t>https://jang.com.pk/news/1214149</t>
   </si>
   <si>
-    <t>چیف جسٹس کے اختیارات محدود کرنے سے متعلق عدالتی اصلاحات بل پارلیمنٹ کے مشترکہ اجلاس میں منظور </t>
+    <t>چیف جسٹس کے اختیارات محدود کرنے سے متعلق عدالتی اصلاحات بل پارلیمنٹ کے مشترکہ اجلاس میں منظور</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1214218</t>
@@ -485,7 +493,7 @@
     <t>https://jang.com.pk/news/1214224</t>
   </si>
   <si>
-    <t>7 ویں مردم شماری کی تاریخ میں 5 روز کی توسیع، اطلاق 19 شہروں پر ہوگا </t>
+    <t>7 ویں مردم شماری کی تاریخ میں 5 روز کی توسیع، اطلاق 19 شہروں پر ہوگا</t>
   </si>
   <si>
     <t>https://jang.com.pk/news/1214225</t>
@@ -980,7 +988,7 @@
     <t>https://www.jasarat.com/2023/04/11/230411-03-4/</t>
   </si>
   <si>
-    <t>فیصل قریشی کے شو پر تنقید: ’میری تو نیکی کی خواہش تھی، بات کو منفی انداز میں گھمایا جا رہا ہے‘ </t>
+    <t>فیصل قریشی کے شو پر تنقید: ’میری تو نیکی کی خواہش تھی، بات کو منفی انداز میں گھمایا جا رہا ہے‘</t>
   </si>
   <si>
     <t>https://www.bbc.com/urdu/articles/c8842xxjwe0o</t>
@@ -1056,375 +1064,15 @@
   </si>
   <si>
     <t>https://www.bbc.com/urdu/articles/cxwjdrggzv9o</t>
-  </si>
-  <si>
-    <t>معذور گداگر کو پیسے نہ دینے پر پریتی زنٹا تنقید کی زد میں، اداکارہ کا شدید ردعمل</t>
-  </si>
-  <si>
-    <t>https://www.dawnnews.tv/news/1200572/</t>
-  </si>
-  <si>
-    <t>کیا ڈارک چاکلیٹ صحت کے لیے مفید ہے؟</t>
-  </si>
-  <si>
-    <t>https://www.dawnnews.tv/news/1200575/</t>
-  </si>
-  <si>
-    <t>سابق عبوری چیف سلیکٹر شاہد آفریدی کا بابر اعظم سے متعلق بیان</t>
-  </si>
-  <si>
-    <t>https://jang.com.pk/news/1214135</t>
-  </si>
-  <si>
-    <t>پاکستان ایشیا کپ کی میزبانی سے دستبردار نہیں ہو گا، نجم سیٹھی</t>
-  </si>
-  <si>
-    <t>https://jang.com.pk/news/1214010</t>
-  </si>
-  <si>
-    <t>بھارت میں اسٹیج پر بیٹھی دلہن کی خوشی میں فائرنگ</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2467682/509</t>
-  </si>
-  <si>
-    <t>صرف ہونٹوں کی حرکات پڑھ کرالفاظ سنانےوالی سونارعینک</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2467239/508</t>
-  </si>
-  <si>
-    <t>ناسا نے فضائی آلودگی پر نظر رکھنے والا سیٹلائٹ لانچ کر دیا</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2466373/508</t>
-  </si>
-  <si>
-    <t>اگلے دس برس تک کینسراور امراضِ قلب کی ویکسین دستیاب ہوسکے گی</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2466794/9812</t>
-  </si>
-  <si>
-    <t>عمر بڑھنے کے حیاتیاتی عمل کو مکمل طور پر پلٹایا نہیں جاسکتا، تحقیق</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2466539/9812</t>
-  </si>
-  <si>
-    <t>سائنسدانوں نے سافٹ ڈرنک کے مزید مضرِ صحت ثبوت پیش کر دیے</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2466490/9812</t>
-  </si>
-  <si>
-    <t>سائبر اور فون کال فراڈ؛ محتاط رہیے</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2467305/464</t>
-  </si>
-  <si>
-    <t>سندھ کے تعلیمی اداروں میں یوم علیؓ پر تعطیل کا نوٹیفکیشن جاری</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/10/school-holiday/</t>
-  </si>
-  <si>
-    <t>سندھ بورڈز امتحانات آؤٹ سورس کرنے کے نوٹیفکیشن کیخلاف پٹیشن</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/10/sindh-boards-2/</t>
-  </si>
-  <si>
-    <t>ناران کے راستے طویل بندش کے بعد ٹریفک کیلیے کھول دیے گئے</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/10/naran-way-opens/</t>
-  </si>
-  <si>
-    <t>الجزائر کی حکومت نے امام ولید کے اعزاز میں استقبالیہ کا اہتمام</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/10/aljazair/</t>
-  </si>
-  <si>
-    <t>ہبل ایک کثیر نسل کے جھرمٹ کی جاسوسی کرتا ہے</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/10/star/</t>
-  </si>
-  <si>
-    <t>مرکزی بینک کے گورنرو سیکرٹریز آئی ایم ایف  اور عالمی بینک کے اجلاسوں میں شرکت کریں گے</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/10/imf-meetings-started/</t>
-  </si>
-  <si>
-    <t>بیرون ملک سے ترسیلات زر میں 27 فیصد اضافہ</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/10/foreign-remittance/</t>
-  </si>
-  <si>
-    <t>جمعیت علماء ہند ملاقات اور ہندو قتل کررہے ہیں</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/10/230410-03-6/</t>
-  </si>
-  <si>
-    <t>حج 2023: عام پاکستانی کے لیے حج پہنچ سے باہر، کیا مدت میں کمی سے اخراجات کم ہو سکتے ہیں؟</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/ck7zpldrkl0o</t>
-  </si>
-  <si>
-    <t>کوئٹہ دھماکہ: ’معصوم کلثوم ماموں کے ہمراہ عید کی شاپنگ کر رہی تھی‘</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c1wdy088pj7o</t>
-  </si>
-  <si>
-    <t>ایران میں بے حجاب خواتین کی شناخت کے لیے کیمروں کا استعمال: ’حجاب ایرانی تہذیب کی بنیاد ہے‘</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cyd629rjnjro</t>
-  </si>
-  <si>
-    <t>پولیس کو اپنی شادی پر فائرنگ کرنے والی دلہن کی تلاش</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cx85vwge2jxo</t>
-  </si>
-  <si>
-    <t>’میری زبان چوس لو‘، بچے کو کہنے پر دلائی لامہ نے معافی مانگ لی</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cp9l340jpg8o</t>
-  </si>
-  <si>
-    <t>بابر کی کپتانی پر نجم سیٹھی کا بیان: ’ورلڈکپ سر پر ہے اور یہاں بابر پر پریشر ڈالا جا رہا ہے‘</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cgx4jygk0wgo</t>
-  </si>
-  <si>
-    <t>خاکروب سے آئی پی ایل میں لگاتار پانچ چھکے لگانے تک: ’کلکتہ کے ہیرو‘ رنکو سنگھ کون ہیں؟</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cv20qewdd8eo</t>
-  </si>
-  <si>
-    <t>اپنی والدہ کی تلاش میں شمالی کوریا سے فرار ہونے والی لڑکی: ’ایک ایک کر کے میرے خاندان والے گم ہو رہے تھے‘</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cw09l54eqplo</t>
-  </si>
-  <si>
-    <t>روس کے کرائے کے فوجیوں کی قبروں کی تفصیل جمع کرنے والے کارکن روس سے فرار</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cw082k3x86eo</t>
-  </si>
-  <si>
-    <t>شمالی افریقہ سے لیمپیڈوسا تک: گمشدہ بٹوے کے مالک کی تلاش</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cw9r2zqgygeo</t>
-  </si>
-  <si>
-    <t>فلیٹ سے خاتون کی ڈھائی سال پرانی لاش برآمد: ’میں فون کر کے کہتی رہی کہ فلیٹ سے مردے کی بو آ رہی ہے‘</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c6pzwj3yyk1o</t>
-  </si>
-  <si>
-    <t>نیوزی لینڈ کرکٹ ٹیم کا دورۂ پاکستان: عالمی معیار کی سیکیورٹی فراہم کریں گے، اسلام آباد پولیس</t>
-  </si>
-  <si>
-    <t>https://www.dawnnews.tv/news/1200508/</t>
-  </si>
-  <si>
-    <t>ڈراما انڈسٹری کےنامور اداکار طارق جمیل پراچہ انتقال کر گئے</t>
-  </si>
-  <si>
-    <t>https://www.dawnnews.tv/news/1200505/</t>
-  </si>
-  <si>
-    <t>موسمیاتی تبدیلی اور مچھروں کے امراض بڑھنے کا پہلا ثبوت فرانس سے دریافت</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2466424/9812</t>
-  </si>
-  <si>
-    <t>حافظ نعیم کا گورنر سندھ کے پکوڑے تلنے کی ویڈیو پر تبصرہ</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/09/hafiz-naeem-95/</t>
-  </si>
-  <si>
-    <t>فیس بک میسنجر پر ویڈیو گیمز کھیلنے کی زبردست سہولت</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/09/games-on-facebook-messenger/</t>
-  </si>
-  <si>
-    <t>عمران خان کی حکومت کے خاتمے کا ایک سال: سیاسی میدان میں کس نے  کیا کھویا اور  کیا پایا؟</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cmlzp8wkrweo</t>
-  </si>
-  <si>
-    <t>بابا ویٹ: ’دریا دل‘ انگریز پولیس افسر جن کی سخاوت کے قصے آج بھی چکوال میں مشہور ہیں  </t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c2v3z2wjwewo</t>
-  </si>
-  <si>
-    <t>آپ کا فون زلزلے کی پیش گوئی کیسے کر سکتا ہے؟</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c0j79nn2lqjo</t>
-  </si>
-  <si>
-    <t>ٹیکنالوجی کی دنیا میں کوڈنگ کرنے کے لیے اپنی ملازمتیں چھوڑنے والی خواتین</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cz9j2jm0jdno</t>
-  </si>
-  <si>
-    <t>آپ کا موبائل فون دل کی بیماری کی علامات کیسے بتا سکتا ہے؟</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c19w278m920o</t>
-  </si>
-  <si>
-    <t>یوٹیوبرز کی ایک ماہ میں کتنی آمدنی ہوتی ہے؟</t>
-  </si>
-  <si>
-    <t>https://www.dawnnews.tv/news/1200441/</t>
-  </si>
-  <si>
-    <t>کام کے دوران کچھ دیر وقفے سے کارکردگی بہتر نہیں ہوتی، تحقیق</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2466814/508</t>
-  </si>
-  <si>
-    <t>مصنوعی ذہانت، چیٹ جی پی ٹی اور کامیابی؟</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2466597/464</t>
-  </si>
-  <si>
-    <t>عیدالفطر پر کتنی چھٹیاں دی جائیں گی؟</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/08/eid-holidays-2/</t>
-  </si>
-  <si>
-    <t>پہلے سعودی خاتون اور مرد آئندہ ماہ خلائی مشن پر روانہ ہوں گے</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/08/saudi-15/</t>
-  </si>
-  <si>
-    <t>خواتین کے لیے تضحیک آمیز رویے: ’دفتر تیار ہو کر گئی تو باس نے کہا آپ مجھ سے پروموشن لینے آئی ہیں؟‘</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/clj7e7026d7o</t>
-  </si>
-  <si>
-    <t>ہماری دیکھا دیکھی نوجوان اداکار اپنی فیس بڑھاتے ہیں، یہ اور بات ہے کہ ان کی فلمیں چل نہیں رہیں: سلمان خان</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c04v05vjld3o</t>
-  </si>
-  <si>
-    <t>یورینس کی نئی حیرت انگیز تصویر جس میں اس کے روشن رنگز پر ’جگمگاتی انگوٹھیوں‘ کا گمان ہوتا ہے</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cekrmk8znm7o</t>
-  </si>
-  <si>
-    <t>ادرک کے حیران کن فوائد جو شاید آپ نہیں جانتے !</t>
-  </si>
-  <si>
-    <t>https://www.dawnnews.tv/news/1200408/</t>
-  </si>
-  <si>
-    <t>رمضان المبارک کو سیاست کی بھینٹ مت چڑھائیے</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2466201/464</t>
-  </si>
-  <si>
-    <t>قدرتی آفات میں اضافہ، ماحول دشمن کوئلے کا استعمال بھی جاری</t>
-  </si>
-  <si>
-    <t>https://www.jasarat.com/2023/04/07/climate-change-4/</t>
-  </si>
-  <si>
-    <t>سپریم کورٹ میں ’تقسیم‘: وہ کیس جس نے پاکستان میں نئے بحران کو جنم دیا</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cg3207r1dy5o</t>
-  </si>
-  <si>
-    <t>زنگ آلود ذہن، ڈگری مافیا اور بے روزگاری</t>
-  </si>
-  <si>
-    <t>https://www.express.pk/story/2465584/464</t>
-  </si>
-  <si>
-    <t>ٹائم میگزین کے سرورق پر عمران خان کی تصویر، حامی مضمون کے متن پر برہم</t>
-  </si>
-  <si>
-    <t>https://www.dawnnews.tv/news/1200235/</t>
-  </si>
-  <si>
-    <t>زبیدہ بنت جعفر: جب عباسی ملکہ نے لاکھوں دینار کی نہر بنوا کر کہا ’حساب قیامت کے دن پر چھوڑتی ہوں‘</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/c2v31exl78no</t>
-  </si>
-  <si>
-    <t>’شفا‘: وہ خاتون جنھیں ان کی کاروباری ذہانت کی بدولت اسلام کی ’پہلی مارکیٹ منتظم‘ مقرر کیا گیا</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cye4pylwep0o</t>
-  </si>
-  <si>
-    <t>گجرات میں احمدی ڈاکٹر کا قتل اور اُن کے مبینہ قاتل کی خودکشی کا معمہ جو سلجھنے کا نام نہیں لے رہا</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cd1y7qx1v0ko</t>
-  </si>
-  <si>
-    <t>خون آلود سیٹ پر ارشد شریف کے بال، گولیوں کی ٹائمنگ اور آئی فون: متضاد دعوے اور تحقیقات سے جڑے اہم  سوال</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cg3j3ngvv2jo</t>
-  </si>
-  <si>
-    <t>معاشرے میں خواتین کی تضحیک یعنی ’مساجنی‘ عام کیوں؟</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cy7n155dvppo</t>
-  </si>
-  <si>
-    <t>مصنوعی ذہانت: کیا اصلی اور نقلی کا فرق مٹ جائے گا؟</t>
-  </si>
-  <si>
-    <t>https://www.bbc.com/urdu/articles/cl5xel4p7e1o</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
@@ -1450,31 +1098,335 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C170"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="A170" sqref="A170"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.574285714285715" customWidth="1"/>
-    <col min="2" max="2" width="5.144285714285714" customWidth="1"/>
-    <col min="3" max="3" width="9.574285714285713" customWidth="1"/>
+    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="2" max="2" width="5.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1484,10 +1436,8 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1"/>
-      <c r="E1"/>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -1498,7 +1448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -1509,7 +1459,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -1520,7 +1470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1531,7 +1481,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -1542,7 +1492,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1553,7 +1503,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1564,7 +1514,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -1575,7 +1525,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -1586,7 +1536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -1597,7 +1547,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1608,7 +1558,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1619,7 +1569,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>30</v>
       </c>
@@ -1630,7 +1580,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>33</v>
       </c>
@@ -1641,7 +1591,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -1652,7 +1602,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1663,7 +1613,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1674,7 +1624,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1685,7 +1635,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1696,7 +1646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
@@ -1707,7 +1657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1718,7 +1668,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1729,7 +1679,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1740,7 +1690,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1751,7 +1701,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1762,7 +1712,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1773,7 +1723,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1784,7 +1734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1795,7 +1745,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -1806,7 +1756,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
@@ -1817,7 +1767,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -1828,7 +1778,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -1839,7 +1789,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -1850,7 +1800,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -1861,7 +1811,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -1872,7 +1822,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1883,7 +1833,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -1894,7 +1844,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -1905,7 +1855,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -1916,7 +1866,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>87</v>
       </c>
@@ -1927,7 +1877,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -1938,7 +1888,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -1949,7 +1899,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -1960,7 +1910,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -1971,7 +1921,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -1982,7 +1932,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -1993,7 +1943,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -2004,7 +1954,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>103</v>
       </c>
@@ -2015,7 +1965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -2026,7 +1976,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>107</v>
       </c>
@@ -2037,7 +1987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>109</v>
       </c>
@@ -2048,7 +1998,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>111</v>
       </c>
@@ -2059,7 +2009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>113</v>
       </c>
@@ -2070,7 +2020,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>115</v>
       </c>
@@ -2081,7 +2031,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>117</v>
       </c>
@@ -2092,7 +2042,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>119</v>
       </c>
@@ -2103,7 +2053,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>121</v>
       </c>
@@ -2114,7 +2064,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>123</v>
       </c>
@@ -2125,7 +2075,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>125</v>
       </c>
@@ -2136,7 +2086,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>127</v>
       </c>
@@ -2147,7 +2097,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>129</v>
       </c>
@@ -2158,7 +2108,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>131</v>
       </c>
@@ -2169,7 +2119,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>133</v>
       </c>
@@ -2180,7 +2130,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>135</v>
       </c>
@@ -2191,7 +2141,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>137</v>
       </c>
@@ -2202,7 +2152,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>139</v>
       </c>
@@ -2213,7 +2163,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>141</v>
       </c>
@@ -2224,7 +2174,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>143</v>
       </c>
@@ -2235,7 +2185,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>145</v>
       </c>
@@ -2246,7 +2196,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>147</v>
       </c>
@@ -2257,7 +2207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>149</v>
       </c>
@@ -2268,7 +2218,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>151</v>
       </c>
@@ -2279,7 +2229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>153</v>
       </c>
@@ -2290,7 +2240,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>155</v>
       </c>
@@ -2301,7 +2251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>157</v>
       </c>
@@ -2312,7 +2262,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>159</v>
       </c>
@@ -2323,7 +2273,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>161</v>
       </c>
@@ -2334,7 +2284,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>163</v>
       </c>
@@ -2345,7 +2295,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>165</v>
       </c>
@@ -2356,7 +2306,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>167</v>
       </c>
@@ -2367,7 +2317,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>169</v>
       </c>
@@ -2378,7 +2328,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>171</v>
       </c>
@@ -2389,7 +2339,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>173</v>
       </c>
@@ -2400,7 +2350,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>175</v>
       </c>
@@ -2411,7 +2361,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>177</v>
       </c>
@@ -2422,7 +2372,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>179</v>
       </c>
@@ -2433,7 +2383,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>181</v>
       </c>
@@ -2444,7 +2394,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>183</v>
       </c>
@@ -2455,7 +2405,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>185</v>
       </c>
@@ -2466,7 +2416,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>187</v>
       </c>
@@ -2477,7 +2427,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>190</v>
       </c>
@@ -2488,7 +2438,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>192</v>
       </c>
@@ -2499,7 +2449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>194</v>
       </c>
@@ -2510,7 +2460,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>196</v>
       </c>
@@ -2521,7 +2471,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>198</v>
       </c>
@@ -2532,7 +2482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>200</v>
       </c>
@@ -2543,7 +2493,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>202</v>
       </c>
@@ -2554,7 +2504,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>204</v>
       </c>
@@ -2565,7 +2515,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>206</v>
       </c>
@@ -2576,7 +2526,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>208</v>
       </c>
@@ -2587,7 +2537,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>210</v>
       </c>
@@ -2598,7 +2548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>212</v>
       </c>
@@ -2609,7 +2559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>214</v>
       </c>
@@ -2620,7 +2570,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>216</v>
       </c>
@@ -2631,7 +2581,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>218</v>
       </c>
@@ -2642,7 +2592,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>220</v>
       </c>
@@ -2653,7 +2603,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>222</v>
       </c>
@@ -2664,7 +2614,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>224</v>
       </c>
@@ -2675,7 +2625,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>226</v>
       </c>
@@ -2686,7 +2636,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>228</v>
       </c>
@@ -2697,7 +2647,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>230</v>
       </c>
@@ -2708,7 +2658,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>232</v>
       </c>
@@ -2719,7 +2669,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>234</v>
       </c>
@@ -2730,7 +2680,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>236</v>
       </c>
@@ -2741,7 +2691,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>238</v>
       </c>
@@ -2752,7 +2702,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>240</v>
       </c>
@@ -2763,7 +2713,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>242</v>
       </c>
@@ -2774,7 +2724,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>244</v>
       </c>
@@ -2785,7 +2735,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>246</v>
       </c>
@@ -2796,7 +2746,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>248</v>
       </c>
@@ -2807,7 +2757,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>250</v>
       </c>
@@ -2818,7 +2768,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>252</v>
       </c>
@@ -2829,7 +2779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>254</v>
       </c>
@@ -2840,7 +2790,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>256</v>
       </c>
@@ -2851,7 +2801,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>258</v>
       </c>
@@ -2862,7 +2812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>260</v>
       </c>
@@ -2873,7 +2823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>262</v>
       </c>
@@ -2884,7 +2834,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>264</v>
       </c>
@@ -2895,7 +2845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>266</v>
       </c>
@@ -2906,7 +2856,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>268</v>
       </c>
@@ -2917,7 +2867,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>270</v>
       </c>
@@ -2928,7 +2878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>272</v>
       </c>
@@ -2939,7 +2889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>274</v>
       </c>
@@ -2950,7 +2900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>276</v>
       </c>
@@ -2961,7 +2911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>278</v>
       </c>
@@ -2972,7 +2922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>280</v>
       </c>
@@ -2983,7 +2933,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>282</v>
       </c>
@@ -2994,7 +2944,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>284</v>
       </c>
@@ -3005,7 +2955,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>286</v>
       </c>
@@ -3016,7 +2966,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>288</v>
       </c>
@@ -3027,7 +2977,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>290</v>
       </c>
@@ -3038,7 +2988,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>292</v>
       </c>
@@ -3049,7 +2999,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>294</v>
       </c>
@@ -3060,7 +3010,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>296</v>
       </c>
@@ -3071,7 +3021,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>298</v>
       </c>
@@ -3082,7 +3032,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>300</v>
       </c>
@@ -3093,7 +3043,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>302</v>
       </c>
@@ -3104,7 +3054,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>304</v>
       </c>
@@ -3115,7 +3065,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>306</v>
       </c>
@@ -3126,7 +3076,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>308</v>
       </c>
@@ -3137,7 +3087,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>310</v>
       </c>
@@ -3148,7 +3098,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>312</v>
       </c>
@@ -3159,7 +3109,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>314</v>
       </c>
@@ -3170,7 +3120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>316</v>
       </c>
@@ -3181,7 +3131,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>318</v>
       </c>
@@ -3192,7 +3142,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>320</v>
       </c>
@@ -3203,7 +3153,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>322</v>
       </c>
@@ -3214,7 +3164,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>324</v>
       </c>
@@ -3225,7 +3175,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>326</v>
       </c>
@@ -3236,7 +3186,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>328</v>
       </c>
@@ -3247,7 +3197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>330</v>
       </c>
@@ -3258,7 +3208,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>332</v>
       </c>
@@ -3269,7 +3219,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>334</v>
       </c>
@@ -3280,7 +3230,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>336</v>
       </c>
@@ -3291,7 +3241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>338</v>
       </c>
@@ -3302,7 +3252,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>340</v>
       </c>
@@ -3313,7 +3263,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>342</v>
       </c>
@@ -3324,7 +3274,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>344</v>
       </c>
@@ -3335,7 +3285,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>346</v>
       </c>
@@ -3346,669 +3296,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>348</v>
-      </c>
-      <c r="B171" t="s">
-        <v>349</v>
-      </c>
-      <c r="C171" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>350</v>
-      </c>
-      <c r="B172" t="s">
-        <v>351</v>
-      </c>
-      <c r="C172" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>352</v>
-      </c>
-      <c r="B173" t="s">
-        <v>353</v>
-      </c>
-      <c r="C173" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>354</v>
-      </c>
-      <c r="B174" t="s">
-        <v>355</v>
-      </c>
-      <c r="C174" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>356</v>
-      </c>
-      <c r="B175" t="s">
-        <v>357</v>
-      </c>
-      <c r="C175" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" t="s">
-        <v>358</v>
-      </c>
-      <c r="B176" t="s">
-        <v>359</v>
-      </c>
-      <c r="C176" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" t="s">
-        <v>360</v>
-      </c>
-      <c r="B177" t="s">
-        <v>361</v>
-      </c>
-      <c r="C177" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" t="s">
-        <v>362</v>
-      </c>
-      <c r="B178" t="s">
-        <v>363</v>
-      </c>
-      <c r="C178" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" t="s">
-        <v>364</v>
-      </c>
-      <c r="B179" t="s">
-        <v>365</v>
-      </c>
-      <c r="C179" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" t="s">
-        <v>366</v>
-      </c>
-      <c r="B180" t="s">
-        <v>367</v>
-      </c>
-      <c r="C180" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" t="s">
-        <v>368</v>
-      </c>
-      <c r="B181" t="s">
-        <v>369</v>
-      </c>
-      <c r="C181" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" t="s">
-        <v>370</v>
-      </c>
-      <c r="B182" t="s">
-        <v>371</v>
-      </c>
-      <c r="C182" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" t="s">
-        <v>372</v>
-      </c>
-      <c r="B183" t="s">
-        <v>373</v>
-      </c>
-      <c r="C183" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" t="s">
-        <v>374</v>
-      </c>
-      <c r="B184" t="s">
-        <v>375</v>
-      </c>
-      <c r="C184" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" t="s">
-        <v>376</v>
-      </c>
-      <c r="B185" t="s">
-        <v>377</v>
-      </c>
-      <c r="C185" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" t="s">
-        <v>378</v>
-      </c>
-      <c r="B186" t="s">
-        <v>379</v>
-      </c>
-      <c r="C186" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" t="s">
-        <v>380</v>
-      </c>
-      <c r="B187" t="s">
-        <v>381</v>
-      </c>
-      <c r="C187" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" t="s">
-        <v>382</v>
-      </c>
-      <c r="B188" t="s">
-        <v>383</v>
-      </c>
-      <c r="C188" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" t="s">
-        <v>384</v>
-      </c>
-      <c r="B189" t="s">
-        <v>385</v>
-      </c>
-      <c r="C189" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" t="s">
-        <v>386</v>
-      </c>
-      <c r="B190" t="s">
-        <v>387</v>
-      </c>
-      <c r="C190" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" t="s">
-        <v>388</v>
-      </c>
-      <c r="B191" t="s">
-        <v>389</v>
-      </c>
-      <c r="C191" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" t="s">
-        <v>390</v>
-      </c>
-      <c r="B192" t="s">
-        <v>391</v>
-      </c>
-      <c r="C192" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" t="s">
-        <v>392</v>
-      </c>
-      <c r="B193" t="s">
-        <v>393</v>
-      </c>
-      <c r="C193" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" t="s">
-        <v>394</v>
-      </c>
-      <c r="B194" t="s">
-        <v>395</v>
-      </c>
-      <c r="C194" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" t="s">
-        <v>396</v>
-      </c>
-      <c r="B195" t="s">
-        <v>397</v>
-      </c>
-      <c r="C195" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" t="s">
-        <v>398</v>
-      </c>
-      <c r="B196" t="s">
-        <v>399</v>
-      </c>
-      <c r="C196" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" t="s">
-        <v>400</v>
-      </c>
-      <c r="B197" t="s">
-        <v>401</v>
-      </c>
-      <c r="C197" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" t="s">
-        <v>402</v>
-      </c>
-      <c r="B198" t="s">
-        <v>403</v>
-      </c>
-      <c r="C198" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" t="s">
-        <v>404</v>
-      </c>
-      <c r="B199" t="s">
-        <v>405</v>
-      </c>
-      <c r="C199" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" t="s">
-        <v>406</v>
-      </c>
-      <c r="B200" t="s">
-        <v>407</v>
-      </c>
-      <c r="C200" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" t="s">
-        <v>408</v>
-      </c>
-      <c r="B201" t="s">
-        <v>409</v>
-      </c>
-      <c r="C201" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" t="s">
-        <v>410</v>
-      </c>
-      <c r="B202" t="s">
-        <v>411</v>
-      </c>
-      <c r="C202" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" t="s">
-        <v>412</v>
-      </c>
-      <c r="B203" t="s">
-        <v>413</v>
-      </c>
-      <c r="C203" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" t="s">
-        <v>414</v>
-      </c>
-      <c r="B204" t="s">
-        <v>415</v>
-      </c>
-      <c r="C204" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" t="s">
-        <v>416</v>
-      </c>
-      <c r="B205" t="s">
-        <v>417</v>
-      </c>
-      <c r="C205" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" t="s">
-        <v>418</v>
-      </c>
-      <c r="B206" t="s">
-        <v>419</v>
-      </c>
-      <c r="C206" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" t="s">
-        <v>420</v>
-      </c>
-      <c r="B207" t="s">
-        <v>421</v>
-      </c>
-      <c r="C207" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" t="s">
-        <v>422</v>
-      </c>
-      <c r="B208" t="s">
-        <v>423</v>
-      </c>
-      <c r="C208" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" t="s">
-        <v>424</v>
-      </c>
-      <c r="B209" t="s">
-        <v>425</v>
-      </c>
-      <c r="C209" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" t="s">
-        <v>426</v>
-      </c>
-      <c r="B210" t="s">
-        <v>427</v>
-      </c>
-      <c r="C210" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" t="s">
-        <v>428</v>
-      </c>
-      <c r="B211" t="s">
-        <v>429</v>
-      </c>
-      <c r="C211" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" t="s">
-        <v>430</v>
-      </c>
-      <c r="B212" t="s">
-        <v>431</v>
-      </c>
-      <c r="C212" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" t="s">
-        <v>432</v>
-      </c>
-      <c r="B213" t="s">
-        <v>433</v>
-      </c>
-      <c r="C213" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" t="s">
-        <v>434</v>
-      </c>
-      <c r="B214" t="s">
-        <v>435</v>
-      </c>
-      <c r="C214" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" t="s">
-        <v>436</v>
-      </c>
-      <c r="B215" t="s">
-        <v>437</v>
-      </c>
-      <c r="C215" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" t="s">
-        <v>438</v>
-      </c>
-      <c r="B216" t="s">
-        <v>439</v>
-      </c>
-      <c r="C216" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" t="s">
-        <v>440</v>
-      </c>
-      <c r="B217" t="s">
-        <v>441</v>
-      </c>
-      <c r="C217" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" t="s">
-        <v>442</v>
-      </c>
-      <c r="B218" t="s">
-        <v>443</v>
-      </c>
-      <c r="C218" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" t="s">
-        <v>444</v>
-      </c>
-      <c r="B219" t="s">
-        <v>445</v>
-      </c>
-      <c r="C219" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" t="s">
-        <v>446</v>
-      </c>
-      <c r="B220" t="s">
-        <v>447</v>
-      </c>
-      <c r="C220" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" t="s">
-        <v>448</v>
-      </c>
-      <c r="B221" t="s">
-        <v>449</v>
-      </c>
-      <c r="C221" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" t="s">
-        <v>450</v>
-      </c>
-      <c r="B222" t="s">
-        <v>451</v>
-      </c>
-      <c r="C222" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" t="s">
-        <v>452</v>
-      </c>
-      <c r="B223" t="s">
-        <v>453</v>
-      </c>
-      <c r="C223" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" t="s">
-        <v>454</v>
-      </c>
-      <c r="B224" t="s">
-        <v>455</v>
-      </c>
-      <c r="C224" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" t="s">
-        <v>456</v>
-      </c>
-      <c r="B225" t="s">
-        <v>457</v>
-      </c>
-      <c r="C225" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" t="s">
-        <v>458</v>
-      </c>
-      <c r="B226" t="s">
-        <v>459</v>
-      </c>
-      <c r="C226" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" t="s">
-        <v>460</v>
-      </c>
-      <c r="B227" t="s">
-        <v>461</v>
-      </c>
-      <c r="C227" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" t="s">
-        <v>462</v>
-      </c>
-      <c r="B228" t="s">
-        <v>463</v>
-      </c>
-      <c r="C228" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="A229" t="s">
-        <v>464</v>
-      </c>
-      <c r="B229" t="s">
-        <v>465</v>
-      </c>
-      <c r="C229" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="A230" t="s">
-        <v>466</v>
-      </c>
-      <c r="B230" t="s">
-        <v>467</v>
-      </c>
-      <c r="C230" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1.0" bottom="1.0" header="0.5" footer="0.5"/>
-  <headerFooter scaleWithDoc="1" alignWithMargins="0" differentFirst="0" differentOddEven="0"/>
-  <extLst/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/Article Category Data/Categories2023-04-11 220847.856943.xlsx
+++ b/Article Category Data/Categories2023-04-11 220847.856943.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\Hadiya\fyp\khulasa\Article Category Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04AB91FF-6A9B-4F9B-BEFB-2CA854DFF081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E036B22-CC12-4183-95F4-06C2D8371C57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="351">
   <si>
     <t>title</t>
   </si>
@@ -1064,6 +1064,15 @@
   </si>
   <si>
     <t>https://www.bbc.com/urdu/articles/cxwjdrggzv9o</t>
+  </si>
+  <si>
+    <t>business? Science?</t>
+  </si>
+  <si>
+    <t>politics?</t>
+  </si>
+  <si>
+    <t>other?</t>
   </si>
 </sst>
 </file>
@@ -1077,12 +1086,24 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1097,8 +1118,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1413,17 +1436,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C170"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="A170" sqref="A170"/>
+    <sheetView tabSelected="1" topLeftCell="A156" workbookViewId="0">
+      <selection activeCell="B170" sqref="B170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" customWidth="1"/>
+    <col min="1" max="1" width="118.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1602,7 +1625,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -1613,7 +1636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1624,7 +1647,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1635,7 +1658,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>44</v>
       </c>
@@ -1646,18 +1669,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>46</v>
       </c>
       <c r="B21" t="s">
         <v>47</v>
       </c>
-      <c r="C21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C21" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>48</v>
       </c>
@@ -1668,7 +1694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -1679,7 +1705,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>52</v>
       </c>
@@ -1690,7 +1716,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>54</v>
       </c>
@@ -1701,7 +1727,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>56</v>
       </c>
@@ -1712,7 +1738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>58</v>
       </c>
@@ -1723,7 +1749,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>60</v>
       </c>
@@ -1734,7 +1760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>62</v>
       </c>
@@ -1745,7 +1771,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>64</v>
       </c>
@@ -1756,18 +1782,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>66</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
       </c>
-      <c r="C31" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>68</v>
       </c>
@@ -1778,7 +1807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>70</v>
       </c>
@@ -1789,7 +1818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -1800,7 +1829,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>74</v>
       </c>
@@ -1811,7 +1840,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>76</v>
       </c>
@@ -1822,7 +1851,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>78</v>
       </c>
@@ -1833,7 +1862,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>80</v>
       </c>
@@ -1844,7 +1873,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>82</v>
       </c>
@@ -1855,7 +1884,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>84</v>
       </c>
@@ -1866,18 +1895,21 @@
         <v>86</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>87</v>
       </c>
       <c r="B41" t="s">
         <v>88</v>
       </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -1888,7 +1920,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>91</v>
       </c>
@@ -1899,7 +1931,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -1910,7 +1942,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>95</v>
       </c>
@@ -1921,7 +1953,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -1932,7 +1964,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>99</v>
       </c>
@@ -1943,7 +1975,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>101</v>
       </c>
@@ -1994,7 +2026,7 @@
       <c r="B52" t="s">
         <v>110</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="2" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2306,18 +2338,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>167</v>
       </c>
       <c r="B81" t="s">
         <v>168</v>
       </c>
-      <c r="C81" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>169</v>
       </c>
@@ -2328,7 +2363,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>171</v>
       </c>
@@ -2339,18 +2374,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>173</v>
       </c>
       <c r="B84" t="s">
         <v>174</v>
       </c>
-      <c r="C84" t="s">
+      <c r="C84" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>175</v>
       </c>
@@ -2361,7 +2396,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>177</v>
       </c>
@@ -2372,7 +2407,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>179</v>
       </c>
@@ -2383,7 +2418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>181</v>
       </c>
@@ -2394,7 +2429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>183</v>
       </c>
@@ -2405,7 +2440,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>185</v>
       </c>
@@ -2416,7 +2451,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>187</v>
       </c>
@@ -2427,18 +2462,21 @@
         <v>189</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>190</v>
       </c>
       <c r="B92" t="s">
         <v>191</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C92" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>192</v>
       </c>
@@ -2449,7 +2487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>194</v>
       </c>
@@ -2460,18 +2498,21 @@
         <v>35</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>196</v>
       </c>
       <c r="B95" t="s">
         <v>197</v>
       </c>
-      <c r="C95" t="s">
+      <c r="C95" s="1" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>198</v>
       </c>
@@ -2658,7 +2699,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>232</v>
       </c>
@@ -2669,7 +2710,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>234</v>
       </c>
@@ -2680,7 +2721,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>236</v>
       </c>
@@ -2691,7 +2732,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>238</v>
       </c>
@@ -2702,18 +2743,21 @@
         <v>86</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>240</v>
       </c>
       <c r="B117" t="s">
         <v>241</v>
       </c>
-      <c r="C117" t="s">
+      <c r="C117" s="2" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D117" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>242</v>
       </c>
@@ -2724,7 +2768,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>244</v>
       </c>
@@ -2735,7 +2779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>246</v>
       </c>
@@ -2746,7 +2790,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>248</v>
       </c>
@@ -2757,7 +2801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>250</v>
       </c>
@@ -2768,7 +2812,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>252</v>
       </c>
@@ -2779,18 +2823,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>254</v>
       </c>
       <c r="B124" t="s">
         <v>255</v>
       </c>
-      <c r="C124" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C124" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>256</v>
       </c>
@@ -2801,7 +2845,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>258</v>
       </c>
@@ -2812,18 +2856,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>260</v>
       </c>
       <c r="B127" t="s">
         <v>261</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C127" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>262</v>
       </c>
@@ -2834,7 +2878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>264</v>
       </c>
@@ -2845,7 +2889,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>266</v>
       </c>
@@ -2856,7 +2900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>268</v>
       </c>
@@ -2867,7 +2911,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>270</v>
       </c>
@@ -2878,7 +2922,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>272</v>
       </c>
@@ -2889,7 +2933,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>274</v>
       </c>
@@ -2900,7 +2944,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>276</v>
       </c>
@@ -2911,7 +2955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>278</v>
       </c>
@@ -2922,7 +2966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>280</v>
       </c>
@@ -2933,18 +2977,21 @@
         <v>32</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>282</v>
       </c>
       <c r="B138" t="s">
         <v>283</v>
       </c>
-      <c r="C138" t="s">
+      <c r="C138" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D138" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>284</v>
       </c>
@@ -2955,7 +3002,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>286</v>
       </c>
@@ -2966,7 +3013,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>288</v>
       </c>
@@ -2977,7 +3024,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>290</v>
       </c>
@@ -2988,7 +3035,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>292</v>
       </c>
@@ -2999,7 +3046,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>294</v>
       </c>
@@ -3010,7 +3057,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>296</v>
       </c>
@@ -3021,7 +3068,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>298</v>
       </c>
@@ -3032,29 +3079,35 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>300</v>
       </c>
       <c r="B147" t="s">
         <v>301</v>
       </c>
-      <c r="C147" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D147" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>302</v>
       </c>
       <c r="B148" t="s">
         <v>303</v>
       </c>
-      <c r="C148" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D148" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>304</v>
       </c>
@@ -3065,7 +3118,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>306</v>
       </c>
@@ -3076,7 +3129,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>308</v>
       </c>
@@ -3087,7 +3140,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>310</v>
       </c>
@@ -3098,7 +3151,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>312</v>
       </c>
@@ -3109,7 +3162,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>314</v>
       </c>
@@ -3120,7 +3173,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>316</v>
       </c>
@@ -3131,7 +3184,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>318</v>
       </c>
@@ -3142,18 +3195,21 @@
         <v>5</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>320</v>
       </c>
       <c r="B157" t="s">
         <v>321</v>
       </c>
-      <c r="C157" t="s">
+      <c r="C157" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>322</v>
       </c>
@@ -3164,7 +3220,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>324</v>
       </c>
@@ -3175,7 +3231,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>326</v>
       </c>
@@ -3193,7 +3249,7 @@
       <c r="B161" t="s">
         <v>329</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C161" s="2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3237,7 +3293,7 @@
       <c r="B165" t="s">
         <v>337</v>
       </c>
-      <c r="C165" t="s">
+      <c r="C165" s="1" t="s">
         <v>5</v>
       </c>
     </row>
